--- a/datas.xlsx
+++ b/datas.xlsx
@@ -329,7 +329,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -392,24 +391,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97100928"/>
-        <c:axId val="97102464"/>
+        <c:axId val="92128384"/>
+        <c:axId val="92129920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97100928"/>
+        <c:axId val="92128384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97102464"/>
+        <c:crossAx val="92129920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97102464"/>
+        <c:axId val="92129920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,20 +416,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97100928"/>
+        <c:crossAx val="92128384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -580,26 +578,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85215488"/>
-        <c:axId val="85231104"/>
+        <c:axId val="93131904"/>
+        <c:axId val="93133440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85215488"/>
+        <c:axId val="93131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85231104"/>
+        <c:crossAx val="93133440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85231104"/>
+        <c:axId val="93133440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +605,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85215488"/>
+        <c:crossAx val="93131904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,7 +618,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -759,26 +756,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="110067072"/>
-        <c:axId val="85881216"/>
+        <c:axId val="93171712"/>
+        <c:axId val="93173248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110067072"/>
+        <c:axId val="93171712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85881216"/>
+        <c:crossAx val="93173248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85881216"/>
+        <c:axId val="93173248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +783,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110067072"/>
+        <c:crossAx val="93171712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -800,7 +796,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -825,7 +821,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Logic Regression</a:t>
+              <a:t> Logistic Regression</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -938,26 +934,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="105432960"/>
-        <c:axId val="110465024"/>
+        <c:axId val="93325952"/>
+        <c:axId val="93352320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105432960"/>
+        <c:axId val="93325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110465024"/>
+        <c:crossAx val="93352320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110465024"/>
+        <c:axId val="93352320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +961,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105432960"/>
+        <c:crossAx val="93325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,7 +974,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1117,26 +1112,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91398528"/>
-        <c:axId val="91400448"/>
+        <c:axId val="93259264"/>
+        <c:axId val="93260800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91398528"/>
+        <c:axId val="93259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91400448"/>
+        <c:crossAx val="93260800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91400448"/>
+        <c:axId val="93260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1139,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91398528"/>
+        <c:crossAx val="93259264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1158,7 +1152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1308,25 +1302,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="110493056"/>
-        <c:axId val="110562304"/>
+        <c:axId val="93293952"/>
+        <c:axId val="93299840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110493056"/>
+        <c:axId val="93293952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110562304"/>
+        <c:crossAx val="93299840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110562304"/>
+        <c:axId val="93299840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1329,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110493056"/>
+        <c:crossAx val="93293952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1348,7 +1342,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1374,7 +1368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1437,24 +1430,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="20857984"/>
-        <c:axId val="20859520"/>
+        <c:axId val="92215936"/>
+        <c:axId val="92254592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20857984"/>
+        <c:axId val="92215936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20859520"/>
+        <c:crossAx val="92254592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20859520"/>
+        <c:axId val="92254592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,20 +1455,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20857984"/>
+        <c:crossAx val="92215936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1505,7 +1497,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1568,24 +1559,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="20698624"/>
-        <c:axId val="110084864"/>
+        <c:axId val="93003776"/>
+        <c:axId val="93005312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20698624"/>
+        <c:axId val="93003776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110084864"/>
+        <c:crossAx val="93005312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110084864"/>
+        <c:axId val="93005312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,20 +1584,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20698624"/>
+        <c:crossAx val="93003776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1632,7 +1622,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1689,24 +1678,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86947328"/>
-        <c:axId val="86948864"/>
+        <c:axId val="93013120"/>
+        <c:axId val="93014656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86947328"/>
+        <c:axId val="93013120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86948864"/>
+        <c:crossAx val="93014656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86948864"/>
+        <c:axId val="93014656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,20 +1703,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86947328"/>
+        <c:crossAx val="93013120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1758,7 +1746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1815,24 +1802,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86819200"/>
-        <c:axId val="86820736"/>
+        <c:axId val="93063424"/>
+        <c:axId val="93073408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86819200"/>
+        <c:axId val="93063424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86820736"/>
+        <c:crossAx val="93073408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86820736"/>
+        <c:axId val="93073408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,20 +1827,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86819200"/>
+        <c:crossAx val="93063424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1884,7 +1870,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1941,24 +1926,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106009344"/>
-        <c:axId val="106010880"/>
+        <c:axId val="93080960"/>
+        <c:axId val="93111424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106009344"/>
+        <c:axId val="93080960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106010880"/>
+        <c:crossAx val="93111424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106010880"/>
+        <c:axId val="93111424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,20 +1951,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106009344"/>
+        <c:crossAx val="93080960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2062,24 +2046,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="105857408"/>
-        <c:axId val="105867904"/>
+        <c:axId val="93119232"/>
+        <c:axId val="93120768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105857408"/>
+        <c:axId val="93119232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105867904"/>
+        <c:crossAx val="93120768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105867904"/>
+        <c:axId val="93120768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2071,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105857408"/>
+        <c:crossAx val="93119232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2100,7 +2084,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2250,26 +2234,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="105715584"/>
-        <c:axId val="105760640"/>
+        <c:axId val="92958080"/>
+        <c:axId val="92972160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105715584"/>
+        <c:axId val="92958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105760640"/>
+        <c:crossAx val="92972160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105760640"/>
+        <c:axId val="92972160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2261,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105715584"/>
+        <c:crossAx val="92958080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,7 +2274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2441,26 +2424,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92190976"/>
-        <c:axId val="92449408"/>
+        <c:axId val="92993792"/>
+        <c:axId val="93224960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92190976"/>
+        <c:axId val="92993792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92449408"/>
+        <c:crossAx val="93224960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92449408"/>
+        <c:axId val="93224960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2451,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92190976"/>
+        <c:crossAx val="92993792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,7 +2464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3200,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/datas.xlsx
+++ b/datas.xlsx
@@ -391,24 +391,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92128384"/>
-        <c:axId val="92129920"/>
+        <c:axId val="94160000"/>
+        <c:axId val="94161536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92128384"/>
+        <c:axId val="94160000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92129920"/>
+        <c:crossAx val="94161536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92129920"/>
+        <c:axId val="94161536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +416,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92128384"/>
+        <c:crossAx val="94160000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -428,7 +428,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -578,25 +578,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93131904"/>
-        <c:axId val="93133440"/>
+        <c:axId val="95328896"/>
+        <c:axId val="95347072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93131904"/>
+        <c:axId val="95328896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93133440"/>
+        <c:crossAx val="95347072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93133440"/>
+        <c:axId val="95347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +605,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93131904"/>
+        <c:crossAx val="95328896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,7 +618,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -756,25 +756,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93171712"/>
-        <c:axId val="93173248"/>
+        <c:axId val="95380224"/>
+        <c:axId val="95381760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93171712"/>
+        <c:axId val="95380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93173248"/>
+        <c:crossAx val="95381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93173248"/>
+        <c:axId val="95381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +783,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93171712"/>
+        <c:crossAx val="95380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -796,7 +796,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -934,25 +934,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93325952"/>
-        <c:axId val="93352320"/>
+        <c:axId val="95398528"/>
+        <c:axId val="95408512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93325952"/>
+        <c:axId val="95398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93352320"/>
+        <c:crossAx val="95408512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93352320"/>
+        <c:axId val="95408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +961,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93325952"/>
+        <c:crossAx val="95398528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,7 +974,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1112,25 +1112,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93259264"/>
-        <c:axId val="93260800"/>
+        <c:axId val="95453952"/>
+        <c:axId val="95455488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93259264"/>
+        <c:axId val="95453952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93260800"/>
+        <c:crossAx val="95455488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93260800"/>
+        <c:axId val="95455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1139,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93259264"/>
+        <c:crossAx val="95453952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,7 +1152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,25 +1302,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93293952"/>
-        <c:axId val="93299840"/>
+        <c:axId val="95472256"/>
+        <c:axId val="95486336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93293952"/>
+        <c:axId val="95472256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93299840"/>
+        <c:crossAx val="95486336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93299840"/>
+        <c:axId val="95486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93293952"/>
+        <c:crossAx val="95472256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,7 +1342,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1430,24 +1430,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92215936"/>
-        <c:axId val="92254592"/>
+        <c:axId val="94313088"/>
+        <c:axId val="94351744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92215936"/>
+        <c:axId val="94313088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92254592"/>
+        <c:crossAx val="94351744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92254592"/>
+        <c:axId val="94351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92215936"/>
+        <c:crossAx val="94313088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,7 +1467,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1559,24 +1559,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93003776"/>
-        <c:axId val="93005312"/>
+        <c:axId val="95166464"/>
+        <c:axId val="95168000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93003776"/>
+        <c:axId val="95166464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93005312"/>
+        <c:crossAx val="95168000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93005312"/>
+        <c:axId val="95168000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,7 +1584,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93003776"/>
+        <c:crossAx val="95166464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,7 +1596,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1678,24 +1678,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93013120"/>
-        <c:axId val="93014656"/>
+        <c:axId val="95175808"/>
+        <c:axId val="95177344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93013120"/>
+        <c:axId val="95175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93014656"/>
+        <c:crossAx val="95177344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93014656"/>
+        <c:axId val="95177344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1703,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93013120"/>
+        <c:crossAx val="95175808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1802,24 +1802,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93063424"/>
-        <c:axId val="93073408"/>
+        <c:axId val="95226112"/>
+        <c:axId val="95236096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93063424"/>
+        <c:axId val="95226112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93073408"/>
+        <c:crossAx val="95236096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93073408"/>
+        <c:axId val="95236096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1827,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93063424"/>
+        <c:crossAx val="95226112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,7 +1839,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1926,24 +1926,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93080960"/>
-        <c:axId val="93111424"/>
+        <c:axId val="95243648"/>
+        <c:axId val="95274112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93080960"/>
+        <c:axId val="95243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93111424"/>
+        <c:crossAx val="95274112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93111424"/>
+        <c:axId val="95274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1951,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93080960"/>
+        <c:crossAx val="95243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,7 +1963,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2046,24 +2046,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93119232"/>
-        <c:axId val="93120768"/>
+        <c:axId val="95281920"/>
+        <c:axId val="95283456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93119232"/>
+        <c:axId val="95281920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93120768"/>
+        <c:crossAx val="95283456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93120768"/>
+        <c:axId val="95283456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2071,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93119232"/>
+        <c:crossAx val="95281920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,7 +2084,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2234,25 +2234,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92958080"/>
-        <c:axId val="92972160"/>
+        <c:axId val="94923392"/>
+        <c:axId val="94929280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92958080"/>
+        <c:axId val="94923392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92972160"/>
+        <c:crossAx val="94929280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92972160"/>
+        <c:axId val="94929280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2261,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92958080"/>
+        <c:crossAx val="94923392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,7 +2274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2424,25 +2424,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92993792"/>
-        <c:axId val="93224960"/>
+        <c:axId val="94950144"/>
+        <c:axId val="94951680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92993792"/>
+        <c:axId val="94950144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93224960"/>
+        <c:crossAx val="94951680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93224960"/>
+        <c:axId val="94951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2451,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92993792"/>
+        <c:crossAx val="94950144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2464,7 +2464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3182,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>

--- a/datas.xlsx
+++ b/datas.xlsx
@@ -329,6 +329,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -391,24 +392,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94160000"/>
-        <c:axId val="94161536"/>
+        <c:axId val="85836928"/>
+        <c:axId val="85838464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94160000"/>
+        <c:axId val="85836928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94161536"/>
+        <c:crossAx val="85838464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94161536"/>
+        <c:axId val="85838464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,19 +417,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94160000"/>
+        <c:crossAx val="85836928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -578,25 +580,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95328896"/>
-        <c:axId val="95347072"/>
+        <c:axId val="87071360"/>
+        <c:axId val="87093632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95328896"/>
+        <c:axId val="87071360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95347072"/>
+        <c:crossAx val="87093632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95347072"/>
+        <c:axId val="87093632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +607,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95328896"/>
+        <c:crossAx val="87071360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,13 +620,381 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Framework</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Scikit-learn (Wine)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$126:$D$128</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$126:$E$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.50285797608632199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47155147273257503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50064158646835799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'execution(en s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$126:$D$128</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$126:$F$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.4654684900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.91542133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3434079449999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="87196416"/>
+        <c:axId val="87197952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87196416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87197952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87197952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87196416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Framework Scikit-learn (Iris)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$26:$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$26:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93952380952380898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98714285714285699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95476190476190403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'execution(en s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$26:$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$26:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6212380049999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.71924784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7900155250000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6330959999999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="87214720"/>
+        <c:axId val="87294336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87214720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87294336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87294336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87214720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -672,17 +1042,17 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$J$20:$J$22</c:f>
+              <c:f>Feuil1!$I$20:$I$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>Scikit-learn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>Weka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -722,17 +1092,17 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$J$20:$J$22</c:f>
+              <c:f>Feuil1!$I$20:$I$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>Scikit-learn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>Weka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,25 +1126,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95380224"/>
-        <c:axId val="95381760"/>
+        <c:dLbls/>
+        <c:axId val="36291328"/>
+        <c:axId val="36292864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95380224"/>
+        <c:axId val="36291328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95381760"/>
+        <c:crossAx val="36292864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95381760"/>
+        <c:axId val="36292864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +1154,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95380224"/>
+        <c:crossAx val="36291328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -796,13 +1167,566 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Algorithme Logistic Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$I$25:$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scikit-learn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Weka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$K$25:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98300000999999904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98714285714285699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'execution(en s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$I$25:$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scikit-learn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Weka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$L$25:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3619006699999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.71924784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1486442299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="102978304"/>
+        <c:axId val="102979840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102978304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102979840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102979840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102978304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Framework Scikit-Learn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'execution(en s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$26:$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$26:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6212380049999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.71924784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7900155250000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6330959999999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="85858944"/>
+        <c:axId val="85897600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85858944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85897600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85897600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85858944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Framework</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Weka</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'execution(en s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$32:$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$32:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0910513100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1486442299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14723661499999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0497555099999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="86908928"/>
+        <c:axId val="86910464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86908928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86910464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86910464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86908928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Algorithme  Decision Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'execution(en s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$I$20:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scikit-learn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Weka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$L$20:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3547257400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6212380049999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0910513100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="86918272"/>
+        <c:axId val="86919808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86918272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86919808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86919808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86918272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -839,78 +1763,28 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$K$24</c:f>
+              <c:f>Feuil1!$L$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
+                  <c:v>Temps d'execution(en s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$J$25:$J$27</c:f>
+              <c:f>Feuil1!$I$25:$I$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Logistic Regression</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
+                  <c:v>Scikit-learn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$K$25:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.98300000999999904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98714285714285699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$L$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$J$25:$J$27</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Logistic Regression</c:v>
+                  <c:v>Weka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -934,34 +1808,32 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95398528"/>
-        <c:axId val="95408512"/>
+        <c:axId val="86968576"/>
+        <c:axId val="86978560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95398528"/>
+        <c:axId val="86968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95408512"/>
+        <c:crossAx val="86978560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95408512"/>
+        <c:axId val="86978560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95398528"/>
+        <c:crossAx val="86968576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,872 +1846,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Framework</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Scikit-learn (Wine)</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$E$125</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$D$126:$D$128</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$E$126:$E$128</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.50285797608632199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47155147273257503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50064158646835799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$F$125</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$D$126:$D$128</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$F$126:$F$128</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.4654684900000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.91542133</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3434079449999903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="95453952"/>
-        <c:axId val="95455488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95453952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95455488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95455488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95453952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Framework Scikit-learn (Iris)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$E$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$D$26:$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$E$26:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.93952380952380898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98714285714285699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95476190476190403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$F$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$D$26:$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$F$26:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.6212380049999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.71924784</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7900155250000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6330959999999899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="95472256"/>
-        <c:axId val="95486336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95472256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95486336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95486336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95472256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Framework Scikit-Learn</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$F$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$D$26:$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$F$26:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.6212380049999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.71924784</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7900155250000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6330959999999899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="94313088"/>
-        <c:axId val="94351744"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="94313088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94351744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94351744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94313088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Framework</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Weka</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$F$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$D$32:$D$35</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$F$32:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0910513100000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1486442299999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.14723661499999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0497555099999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="95166464"/>
-        <c:axId val="95168000"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95166464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95168000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95168000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95166464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Algorithme  Decision Tree</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$L$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$I$20:$I$22</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>R</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scikit-learn</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Weka</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$L$20:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.3547257400000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6212380049999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0910513100000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="95175808"/>
-        <c:axId val="95177344"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95175808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95177344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95177344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95175808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Algorithme</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Logistic Regression</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$L$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temps d'execution(en s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$I$25:$I$27</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>R</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scikit-learn</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Weka</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$L$25:$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.3619006699999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.71924784</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1486442299999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="95226112"/>
-        <c:axId val="95236096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95226112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95236096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95236096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95226112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1870,6 +1877,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1926,24 +1934,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95243648"/>
-        <c:axId val="95274112"/>
+        <c:axId val="86986112"/>
+        <c:axId val="87016576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95243648"/>
+        <c:axId val="86986112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95274112"/>
+        <c:crossAx val="87016576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95274112"/>
+        <c:axId val="87016576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,19 +1959,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95243648"/>
+        <c:crossAx val="86986112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2046,24 +2055,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95281920"/>
-        <c:axId val="95283456"/>
+        <c:axId val="87024384"/>
+        <c:axId val="87025920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95281920"/>
+        <c:axId val="87024384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95283456"/>
+        <c:crossAx val="87025920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95283456"/>
+        <c:axId val="87025920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2080,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95281920"/>
+        <c:crossAx val="87024384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,7 +2093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2234,25 +2243,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94923392"/>
-        <c:axId val="94929280"/>
+        <c:axId val="86600320"/>
+        <c:axId val="86606208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94923392"/>
+        <c:axId val="86600320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94929280"/>
+        <c:crossAx val="86606208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94929280"/>
+        <c:axId val="86606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2270,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94923392"/>
+        <c:crossAx val="86600320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,7 +2283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2424,25 +2433,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94950144"/>
-        <c:axId val="94951680"/>
+        <c:axId val="86627072"/>
+        <c:axId val="86628608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94950144"/>
+        <c:axId val="86627072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94951680"/>
+        <c:crossAx val="86628608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94951680"/>
+        <c:axId val="86628608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2460,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94950144"/>
+        <c:crossAx val="86627072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2464,7 +2473,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2776,66 +2785,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Graphique 19"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Graphique 20"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -2856,7 +2805,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2878,6 +2827,66 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="28" name="Graphique 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Graphique 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Graphique 22"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3182,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
